--- a/experiment_results_with_graphs.xlsx
+++ b/experiment_results_with_graphs.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akath\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annechen/Documents/School/Spring 2023/Numerical Comp/Num-Comp-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596356AD-DF01-4B0D-8F9A-4072C0976AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C13AE-2960-D84A-83EC-7CF3AC6E539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{05C054A1-BADD-9D4E-A308-921912729172}"/>
+    <workbookView xWindow="3780" yWindow="500" windowWidth="25160" windowHeight="15880" activeTab="1" xr2:uid="{05C054A1-BADD-9D4E-A308-921912729172}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$9:$F$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$A$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$B$10:$F$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$12:$F$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$B$13:$F$13</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$B$14:$F$14</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1298,11 +1311,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$10</c:f>
+              <c:f>Sheet2!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>un + adj_reg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1332,31 +1345,32 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$9:$F$9</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Sheet2!$A$10:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>un + adj_reg</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>adj + ly_reg</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>verb + er_irreg</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>verb + tion_irreg</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>verb + ment_irreg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$F$10</c:f>
+              <c:f>Sheet2!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1364,16 +1378,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,11 +1404,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
+              <c:f>Sheet2!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>adj + ly_reg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1424,48 +1438,49 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$9:$F$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>un + adj_reg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>adj + ly_reg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>verb + er_irreg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>verb + tion_irreg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>verb + ment_irreg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$11:$F$11</c:f>
+              <c:f>Sheet2!$A$10:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,11 +1497,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$12</c:f>
+              <c:f>Sheet2!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>verb + er_irreg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1516,39 +1531,40 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$9:$F$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>un + adj_reg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>adj + ly_reg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>verb + er_irreg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>verb + tion_irreg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>verb + ment_irreg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$12:$F$12</c:f>
+              <c:f>Sheet2!$A$10:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$10:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16</c:v>
@@ -1557,7 +1573,7 @@
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,11 +1590,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$13</c:f>
+              <c:f>Sheet2!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>verb + tion_irreg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1608,39 +1624,40 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$9:$F$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>un + adj_reg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>adj + ly_reg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>verb + er_irreg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>verb + tion_irreg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>verb + ment_irreg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$13:$F$13</c:f>
+              <c:f>Sheet2!$A$10:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$10:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16</c:v>
@@ -1649,7 +1666,7 @@
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,11 +1683,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$14</c:f>
+              <c:f>Sheet2!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>verb + ment_irreg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1700,45 +1717,46 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$9:$F$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>un + adj_reg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>adj + ly_reg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>verb + er_irreg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>verb + tion_irreg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>verb + ment_irreg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$14:$F$14</c:f>
+              <c:f>Sheet2!$A$10:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$10:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.16</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.28000000000000003</c:v>
@@ -1991,7 +2009,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Enclyclopedic Semantics</a:t>
+              <a:t>Encyclopedic Semantics</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4744,12 +4762,12 @@
       <selection activeCell="A19" sqref="A19:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4758,7 +4776,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>5</v>
       </c>
@@ -4775,7 +4793,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4785,7 +4803,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4805,7 +4823,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4825,7 +4843,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4845,7 +4863,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4865,7 +4883,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4885,7 +4903,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4905,7 +4923,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4925,7 +4943,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4945,7 +4963,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -4955,7 +4973,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4975,7 +4993,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4995,7 +5013,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5015,7 +5033,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5035,7 +5053,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5055,7 +5073,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -5065,7 +5083,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5085,7 +5103,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5105,7 +5123,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5125,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5145,7 +5163,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5177,13 +5195,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4AF2D3-D3A4-48CE-A893-B58FAB8AE5DE}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5209,7 +5227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -5238,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>50</v>
       </c>
@@ -5267,7 +5285,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>500</v>
       </c>
@@ -5296,7 +5314,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1000</v>
       </c>
@@ -5325,7 +5343,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2000</v>
       </c>
@@ -5354,7 +5372,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -5371,7 +5389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -5391,7 +5409,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>50</v>
       </c>
@@ -5411,7 +5429,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>500</v>
       </c>
@@ -5431,7 +5449,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
@@ -5451,7 +5469,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2000</v>
       </c>
@@ -5471,7 +5489,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -5488,7 +5506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -5508,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -5528,7 +5546,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>500</v>
       </c>
@@ -5548,7 +5566,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1000</v>
       </c>
@@ -5568,7 +5586,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2000</v>
       </c>
